--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markcartwright/git/minimal-mistakes/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30264C76-FF47-0C4D-B5C1-0BFEF5283F9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B426AC5-723D-7040-A951-74C8D11C6AFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2660" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7520" yWindow="2440" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="244">
   <si>
     <t>title</t>
   </si>
@@ -707,6 +707,51 @@
   </si>
   <si>
     <t>Monitoring health and noise pollution in urban environments often entails deploying acoustic sensor networks to passively collect data in public spaces. Although spaces are technically public, people in the environment may not fully realize the degree to which they may be recorded by the sensor network, which may be perceived as a violation of expected privacy. Therefore, we propose a method to anonymize and blur the voices of people recorded in public spaces — a novel, yet increasingly important task as acoustic sensing becomes ubiquitous in sensor-equipped smart cities. This method is analogous to Google's face blurring in its Street View photographs, which arose from similar concerns in the visual domain. The proposed blurring method aims to anonymize voices by removing both the linguistic content and personal identity from voices, while preserving the rest of the acoustic scene.\n\n The method consists of a three-step process. First, voices are separated from non-voice content by a deep U-Net source separation model. Second, we evaluate two approaches to obscure the identity and intelligibility of the extracted voices: a low pass filter to remove most of the formants in the voices, and an inversion of Mel-Frequency Cepstral Coefficients (MFCC). Finally, the blurred vocal content is mixed with the separated non-vocal signal to reconstruct the acoustic scene. Using background recordings from a real urban acoustic sensor network in New York City, we present a complete evaluation of our method, with automatic speech recognition, speaker identification, sound event detection, and human perceptual evaluation.</t>
+  </si>
+  <si>
+    <t>We present SONYC-UST-V2, a dataset for urban sound tagging with spatiotemporal information. This dataset is aimed for the development and evaluation of machine listening systems for real-world urban noise monitoring. While datasets of urban recordings are available, this dataset provides the opportunity to investigate how spatiotemporal metadata can aid in the prediction of urban sound tags. SONYC-UST-V2 consists of 18510 audio recordings from the Sounds of New York City (SONYC) acoustic sensor network, including the timestamp of audio acquisition and location of the sensor. The dataset contains annotations by volunteers from the Zooniverse citizen science platform, as well as a two-stage verification with our team. In this article, we describe our data collection procedure and propose evaluation metrics for multilabel classification of urban sound tags. We report the results of a simple baseline model that exploits spatiotemporal information.</t>
+  </si>
+  <si>
+    <t>SONYC-UST-V2: An Urban Sound Tagging Dataset with Spatiotemporal Context</t>
+  </si>
+  <si>
+    <t>Cartwright, M., Cramer, J., Mendez, A.E.M., Wang, Y., Wu, H., Lostanlen, V., Fuentes, M., Dove, G., Mydlarz, C., Salamon, J., Nov, O., Bello, J.P. SONYC-UST-V2: An Urban Sound Tagging Dataset with Spatiotemporal Context. In &lt;i&gt;Proceedings of the Workshop on Detection and Classification of Acoustic Scenes and Events (DCASE)&lt;/i&gt;, 2020.</t>
+  </si>
+  <si>
+    <t>cartwright2020sonycustv2.pdf</t>
+  </si>
+  <si>
+    <t>urban_sound_tagging_w_stc.png</t>
+  </si>
+  <si>
+    <t>cartwright2020sonycustv2_presentation.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/sonyc-project/dcase2020task5-uststc-baseline</t>
+  </si>
+  <si>
+    <t>DCASE challenge baseline</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3966543</t>
+  </si>
+  <si>
+    <t>SONYC-UST-V2 dataset</t>
+  </si>
+  <si>
+    <t>Few-Shot Drum Transcription in Polyphonic Music</t>
+  </si>
+  <si>
+    <t>Wang, Y., Salamon, J., Cartwright, M., Bryan, N.J., Bello, J.P. Few-Shot Drum Transcription in Polyphonic Music.  In &lt;i&gt;Proceedings of the International Society for Music Information Retrieval Conference (ISMIR)&lt;/i&gt;, 2020.</t>
+  </si>
+  <si>
+    <t>Data-driven approaches to automatic drum transcription (ADT) are often limited to a predefined, small vocabulary of percussion instrument classes. Such models cannot recognize out-of-vocabulary classes nor are they able to adapt to finer-grained vocabularies. In this work, we address open vocabulary ADT by introducing few-shot learning to the task. We train a Prototypical Network on a synthetic dataset and evaluate the model on multiple real-world ADT datasets with polyphonic accompaniment. We show that, given just a handful of selected examples at inference time, we can match and in some cases outperform a state-of-theart supervised ADT approach under a fixed vocabulary setting. At the same time, we show that our model can successfully generalize to finer-grained or extended vocabularies unseen during training, a scenario where supervised approaches cannot operate at all. We provide a detailed analysis of our experimental results, including a breakdown of performance by sound class and by polyphony.</t>
+  </si>
+  <si>
+    <t>fewshot_drums.png</t>
+  </si>
+  <si>
+    <t>wang2020fewshotdrum.pdf</t>
   </si>
 </sst>
 </file>
@@ -1564,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2597,6 +2642,79 @@
       </c>
       <c r="Q34" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>44137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" t="s">
+        <v>233</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="L35" t="s">
+        <v>234</v>
+      </c>
+      <c r="M35" t="s">
+        <v>235</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>237</v>
+      </c>
+      <c r="P35" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>44115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markcartwright/git/minimal-mistakes/markdown_generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcartwright/git/mcartwright.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B426AC5-723D-7040-A951-74C8D11C6AFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7D30AE-2D99-494E-B1C0-B50217940E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="2440" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="36840" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="257">
   <si>
     <t>title</t>
   </si>
@@ -752,6 +752,45 @@
   </si>
   <si>
     <t>wang2020fewshotdrum.pdf</t>
+  </si>
+  <si>
+    <t>Supervised learning for audio classification typically imposes a fixed class vocabulary, which can be limiting for real-world applications where the target class vocabulary is not known a priori or changes dynamically. In this work, we introduce a few-shot continual learning framework for audio classification, where we can continuously expand a trained base classifier to recognize novel classes based on only few labeled data at inference time. This enables fast and interactive model updates by end-users with minimal human effort. To do so, we leverage the dynamic few-shot learning technique and adapt it to a challenging multi-label audio classification scenario. We incorporate a recent state-of-the-art audio feature extraction model as a backbone and perform a comparative analysis of our approach on two popular audio datasets (ESC-50 and AudioSet). We conduct an in-depth evaluation to illustrate the complexities of the problem and show that, while there is still room for improvement, our method outperforms three baselines on novel class detection while maintaining its performance on base classes.</t>
+  </si>
+  <si>
+    <t>wang2021continual.pdf</t>
+  </si>
+  <si>
+    <t>Few-Shot Continual Learning for Audio Classification</t>
+  </si>
+  <si>
+    <t>Wang, Y., Bryan, N.J., Cartwright, M., Bello, J.P., Salamon, J.  Few-Shot Continual Learning for Audio Classification.  In &lt;i&gt;Proceedings of the IEEE International Conference on Acoustics, Speech and Signal Processing (ICASSP)&lt;/i&gt;, 2021.</t>
+  </si>
+  <si>
+    <t>fewshot_continual.png</t>
+  </si>
+  <si>
+    <t>GqHi_KoEvzE</t>
+  </si>
+  <si>
+    <t>wang2020fewshotdrum_poster.pdf</t>
+  </si>
+  <si>
+    <t>wang2021continual_poster.pdf</t>
+  </si>
+  <si>
+    <t>srivastava2021specialized.pdf</t>
+  </si>
+  <si>
+    <t>specialized_embedding.png</t>
+  </si>
+  <si>
+    <t>Specialized Embedding Approximation for Edge Intelligence: A Case Study in Urban Sound Classification</t>
+  </si>
+  <si>
+    <t>Srivastava, S., Roy, D., Cartwright, M., Bello, J.P., Arora, A. Specialized Embedding Approximation for Edge Intelligence: A Case Study in Urban Sound Classification.  In &lt;i&gt;Proceedings of the IEEE International Conference on Acoustics, Speech and Signal Processing (ICASSP)&lt;/i&gt;, 2021.</t>
+  </si>
+  <si>
+    <t>Embedding models that encode semantic information into low-dimensional vector representations are useful in various machine learning tasks with limited training data. However, these models are typically too large to support inference in small edge devices, which motivates training of smaller yet comparably predictive student embedding models through knowledge distillation (KD). While knowledge distillation traditionally uses the teacher’s original training dataset to train the student, we hypothesize that using a dataset similar to the student’s target domain allows for better compression and training efficiency for the said domain, at the cost of reduced generality across other (non-pertinent) domains. Hence, we introduce &lt;i&gt;Specialized Embedding Approximation&lt;/i&gt; (SEA) to train a student featurizer to approximate the teacher's embedding manifold for a given target domain. We demonstrate the feasibility of SEA in the context of acoustic event classification for urban noise monitoring and show that leveraging a dataset related to this target domain not only improves the baseline performance of the original embedding model but also yields competitive students with &amp;gt; 1 order of magnitude lesser storage and activation memory. We further investigate the impact of using random and informed sampling techniques for dimensionality reduction in SEA.</t>
   </si>
 </sst>
 </file>
@@ -1609,15 +1648,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="51.1640625" customWidth="1"/>
     <col min="6" max="6" width="73.33203125" style="2" customWidth="1"/>
   </cols>
@@ -1829,7 +1869,7 @@
         <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -2713,8 +2753,75 @@
       <c r="I36">
         <v>100</v>
       </c>
+      <c r="J36" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" t="s">
+        <v>250</v>
+      </c>
       <c r="Q36" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>44355</v>
+      </c>
+      <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="K37" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>44355</v>
+      </c>
+      <c r="B38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcartwright/git/mcartwright.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7D30AE-2D99-494E-B1C0-B50217940E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49842A87-8B0F-D24F-ADDD-529ACF1CA64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="36840" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25580" yWindow="2460" windowWidth="36840" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="260">
   <si>
     <t>title</t>
   </si>
@@ -791,6 +791,15 @@
   </si>
   <si>
     <t>Embedding models that encode semantic information into low-dimensional vector representations are useful in various machine learning tasks with limited training data. However, these models are typically too large to support inference in small edge devices, which motivates training of smaller yet comparably predictive student embedding models through knowledge distillation (KD). While knowledge distillation traditionally uses the teacher’s original training dataset to train the student, we hypothesize that using a dataset similar to the student’s target domain allows for better compression and training efficiency for the said domain, at the cost of reduced generality across other (non-pertinent) domains. Hence, we introduce &lt;i&gt;Specialized Embedding Approximation&lt;/i&gt; (SEA) to train a student featurizer to approximate the teacher's embedding manifold for a given target domain. We demonstrate the feasibility of SEA in the context of acoustic event classification for urban noise monitoring and show that leveraging a dataset related to this target domain not only improves the baseline performance of the original embedding model but also yields competitive students with &amp;gt; 1 order of magnitude lesser storage and activation memory. We further investigate the impact of using random and informed sampling techniques for dimensionality reduction in SEA.</t>
+  </si>
+  <si>
+    <t>srivastava2021specialized_poster.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/ksangeeta2429/edgel3</t>
+  </si>
+  <si>
+    <t>EdgeL3 python package</t>
   </si>
 </sst>
 </file>
@@ -1650,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1868,6 +1877,12 @@
       <c r="I6">
         <v>66</v>
       </c>
+      <c r="M6" t="s">
+        <v>258</v>
+      </c>
+      <c r="N6" t="s">
+        <v>259</v>
+      </c>
       <c r="Q6" t="s">
         <v>204</v>
       </c>
@@ -2819,6 +2834,15 @@
       </c>
       <c r="I38">
         <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>257</v>
+      </c>
+      <c r="M38" t="s">
+        <v>258</v>
+      </c>
+      <c r="N38" t="s">
+        <v>259</v>
       </c>
       <c r="Q38" t="s">
         <v>204</v>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcartwright/git/mcartwright.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49842A87-8B0F-D24F-ADDD-529ACF1CA64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD49E77-933C-C14E-9E5B-5D34E3AA49D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25580" yWindow="2460" windowWidth="36840" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25000" yWindow="9500" windowWidth="37420" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="280">
   <si>
     <t>title</t>
   </si>
@@ -800,6 +800,66 @@
   </si>
   <si>
     <t>EdgeL3 python package</t>
+  </si>
+  <si>
+    <t>Who calls the shots? Rethinking few-shot learning for audio</t>
+  </si>
+  <si>
+    <t>Wang, Y., Bryan, N., Salamon, J., Cartwright, M., Bello, J.P. Who calls the shots? Rethinking few-shot learning for audio. In &lt;i&gt;Proceedings of the IEEE Workshop on Applications of Signal Processing to Audio and Acoustics (WASPAA)&lt;/i&gt;, 2021.</t>
+  </si>
+  <si>
+    <t>wang2021who.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/wangyu/rethink-audio-fsl</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.5574135</t>
+  </si>
+  <si>
+    <t>FSD-MIX-CLIPS</t>
+  </si>
+  <si>
+    <t>wang2021who_slides.pdf</t>
+  </si>
+  <si>
+    <t>srivastava2021specialized_presentation.pdf</t>
+  </si>
+  <si>
+    <t>Code repository</t>
+  </si>
+  <si>
+    <t>wang2021who_recap.png</t>
+  </si>
+  <si>
+    <t>While the estimation of what sound sources are, when they occur, and from where they originate has been well-studied, the estimation of how loud these sound sources are has been often overlooked. Current solutions to this task, which we refer to as source-specific sound level estimation (SSSLE), suffer from challenges due to the impracticality of acquiring realistic data and a lack of robustness to realistic recording conditions. Recently proposed weakly supervised source separation offer a means of leveraging clip-level source annotations to train source separation models, which we augment with modified loss functions to bridge the gap between source separation and SSSLE and to address the presence of background. We show that our approach improves SSSLE performance compared to baseline source separation models and provide an ablation analysis to explore our method's design choices, showing that SSSLE in practical recording and annotation scenarios is possible.</t>
+  </si>
+  <si>
+    <t>Weakly Supervised Source-Specific Sound Level Estimation in Noisy Soundscapes</t>
+  </si>
+  <si>
+    <t>Cramer, A., Cartwright, M., Pishdadian, F., Bello, J.P. Weakly Supervised Source-Specific Sound Level Estimation in Noisy Soundscapes. In &lt;i&gt;Proceedings of the IEEE Workshop on Applications of Signal Processing to Audio and Acoustics (WASPAA)&lt;/i&gt;, 2021.</t>
+  </si>
+  <si>
+    <t>cramer2021weakly.pdf</t>
+  </si>
+  <si>
+    <t>cramer2021weakly_presentation.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.5129078</t>
+  </si>
+  <si>
+    <t>SONYC-Backgrounds</t>
+  </si>
+  <si>
+    <t>https://github.com/sonyc-project/weakly-supervised-sssle</t>
+  </si>
+  <si>
+    <t>cramer2021weakly.png</t>
+  </si>
+  <si>
+    <t>While the field has seen notable advances in recent years, they have often focused on multi-class image classification. Audio, in contrast, is often multi-label due to overlapping sounds, resulting in unique properties such as polyphony and signal-to-noise ratios (SNR). This leads to unanswered questions concerning the impact such audio properties may have on few-shot learning system design, performance, and human-computer interaction, as it is typically up to the user to collect and provide inference-time support set examples. We address these questions through a series of experiments designed to elucidate the answers to these questions. We introduce two novel datasets, FSD-MIX-CLIPS and FSD-MIX-SED, whose programmatic generation allows us to explore these questions systematically. Our experiments lead to audio-specific insights on few-shot learning, some of which are at odds with recent findings in the image domain: there is no best one-size-fits-all model, method, and support set selection criterion. Rather, it depends on the expected application scenario.</t>
   </si>
 </sst>
 </file>
@@ -809,7 +869,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -948,6 +1008,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1295,12 +1362,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1657,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2838,6 +2906,9 @@
       <c r="K38" t="s">
         <v>257</v>
       </c>
+      <c r="L38" t="s">
+        <v>267</v>
+      </c>
       <c r="M38" t="s">
         <v>258</v>
       </c>
@@ -2846,6 +2917,94 @@
       </c>
       <c r="Q38" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>44486</v>
+      </c>
+      <c r="B39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="L39" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" t="s">
+        <v>263</v>
+      </c>
+      <c r="N39" t="s">
+        <v>268</v>
+      </c>
+      <c r="O39" t="s">
+        <v>264</v>
+      </c>
+      <c r="P39" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>44486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" t="s">
+        <v>278</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="L40" t="s">
+        <v>274</v>
+      </c>
+      <c r="M40" t="s">
+        <v>277</v>
+      </c>
+      <c r="N40" t="s">
+        <v>268</v>
+      </c>
+      <c r="O40" t="s">
+        <v>275</v>
+      </c>
+      <c r="P40" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcartwright/git/mcartwright.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD49E77-933C-C14E-9E5B-5D34E3AA49D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D36258A-939C-E64B-9AC4-FA7AFA63AECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25000" yWindow="9500" windowWidth="37420" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25000" yWindow="8840" windowWidth="37420" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -820,9 +820,6 @@
     <t>FSD-MIX-CLIPS</t>
   </si>
   <si>
-    <t>wang2021who_slides.pdf</t>
-  </si>
-  <si>
     <t>srivastava2021specialized_presentation.pdf</t>
   </si>
   <si>
@@ -860,6 +857,9 @@
   </si>
   <si>
     <t>While the field has seen notable advances in recent years, they have often focused on multi-class image classification. Audio, in contrast, is often multi-label due to overlapping sounds, resulting in unique properties such as polyphony and signal-to-noise ratios (SNR). This leads to unanswered questions concerning the impact such audio properties may have on few-shot learning system design, performance, and human-computer interaction, as it is typically up to the user to collect and provide inference-time support set examples. We address these questions through a series of experiments designed to elucidate the answers to these questions. We introduce two novel datasets, FSD-MIX-CLIPS and FSD-MIX-SED, whose programmatic generation allows us to explore these questions systematically. Our experiments lead to audio-specific insights on few-shot learning, some of which are at odds with recent findings in the image domain: there is no best one-size-fits-all model, method, and support set selection criterion. Rather, it depends on the expected application scenario.</t>
+  </si>
+  <si>
+    <t>wang2021who_presentation.pdf</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1728,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2907,7 +2907,7 @@
         <v>257</v>
       </c>
       <c r="L38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M38" t="s">
         <v>258</v>
@@ -2936,22 +2936,22 @@
         <v>262</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="L39" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s">
         <v>263</v>
       </c>
       <c r="N39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O39" t="s">
         <v>264</v>
@@ -2968,40 +2968,40 @@
         <v>44486</v>
       </c>
       <c r="B40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" t="s">
         <v>272</v>
       </c>
-      <c r="E40" t="s">
-        <v>273</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
       <c r="L40" t="s">
+        <v>273</v>
+      </c>
+      <c r="M40" t="s">
+        <v>276</v>
+      </c>
+      <c r="N40" t="s">
+        <v>267</v>
+      </c>
+      <c r="O40" t="s">
         <v>274</v>
       </c>
-      <c r="M40" t="s">
-        <v>277</v>
-      </c>
-      <c r="N40" t="s">
-        <v>268</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>275</v>
-      </c>
-      <c r="P40" t="s">
-        <v>276</v>
       </c>
       <c r="Q40" t="s">
         <v>199</v>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcartwright/git/mcartwright.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D36258A-939C-E64B-9AC4-FA7AFA63AECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15967B23-1F47-C543-95AD-68A5E19F64A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25000" yWindow="8840" windowWidth="37420" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="6360" windowWidth="37420" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,6 @@
     <t>cartwright2014synthassistanaudio.pdf</t>
   </si>
   <si>
-    <t> SynthAssist: Querying an Audio Synthesizer by Vocal Imitation</t>
-  </si>
-  <si>
     <t>New Instruments for Musical Expression (NIME)</t>
   </si>
   <si>
@@ -607,9 +604,6 @@
     <t>Cartwright, M., Pardo, B. VocalSketch: Vocally Imitating Audio Concepts. In &lt;i&gt;Proceedings of the ACM Conference on Human Factors in Computing Systems (CHI)&lt;/i&gt;, 2015. &lt;b&gt;&lt;i class="fas fa-fw fa-award" aria-hidden="true"&gt;&lt;/i&gt;Honorable Mention&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Cartwright, M., Pardo, B. SynthAssist: An Audio Synthesizer Programmed With Vocal Imitation. In &lt;i&gt;Proceedings of the ACM International Conference on Multimedia (ACM MM)&lt;/i&gt;, 2014. &lt;b&gt;&lt;i class="fas fa-fw fa-trophy" aria-hidden="true"&gt;&lt;/i&gt;Best Demo Award&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Catalyzed by the invention of magnetic tape recording, audio production has transformed from technical to artistic, and the roles of producer, engineer, composer, and performer have merged for many forms of music. However, while these roles have changed, the way we interact with audio production tools has not and still relies on the conventions established in the 1970s for audio engineers. Users communicate their audio concepts to these complex tools using knobs and sliders that control low-level technical parameters. Musicians currently need technical knowledge of signals in addition to their musical knowledge to make novel music. However, many experienced and casual musicians simply do not have the time or desire to acquire this technical knowledge. While simpler tools (e.g. Apple's GarageBand) exist, they are limiting and frustrating to users.\n\n To support these audio-production novices, we must build audio-production tools with affordances for them. We must identify interactions that enable novices to communicate their audio concepts without requiring technical knowledge and develop systems that can understand these interactions.\n\n This dissertation advances our understanding of this problem by investigating three interaction types which are inspired by how novices communicate audio concepts to other people: language, vocal imitation, and evaluation. Because learning from an individual can be time consuming for a user, much of this dissertation focuses on how we can learn general audio concepts offline using crowdsourcing rather than user-specific audio concepts. This work introduces algorithms, frameworks, and software for learning audio concepts via these interactions and investigates the strengths and weaknesses of both the algorithms and the interaction types. These contributions provide a research foundation for a new generation of audio-production tools.\n\n This problem is not limited to audio production tools. Other media production tools—such as software for graphics, image, and video design and editing—are also controlled by low-level technical parameters which require technical knowledge and experience to use effectively. The contributions in this dissertation to learn mappings from descriptive language and feedback to low-level control parameters may also be adapted for creative production tools in these other mediums. The contributions in this dissertation can unlock the creativity trapped in everyone who has the desire to make music and other media but does not have the technical skills required for today's tools.</t>
   </si>
   <si>
@@ -805,9 +799,6 @@
     <t>Who calls the shots? Rethinking few-shot learning for audio</t>
   </si>
   <si>
-    <t>Wang, Y., Bryan, N., Salamon, J., Cartwright, M., Bello, J.P. Who calls the shots? Rethinking few-shot learning for audio. In &lt;i&gt;Proceedings of the IEEE Workshop on Applications of Signal Processing to Audio and Acoustics (WASPAA)&lt;/i&gt;, 2021.</t>
-  </si>
-  <si>
     <t>wang2021who.pdf</t>
   </si>
   <si>
@@ -860,6 +851,15 @@
   </si>
   <si>
     <t>wang2021who_presentation.pdf</t>
+  </si>
+  <si>
+    <t>SynthAssist: Querying an Audio Synthesizer by Vocal Imitation</t>
+  </si>
+  <si>
+    <t>Cartwright, M., Pardo, B. SynthAssist: An Audio Synthesizer Programmed With Vocal Imitation. In &lt;i&gt;Proceedings of the ACM International Conference on Multimedia (ACM MM)&lt;/i&gt;, 2014. &lt;b&gt;&lt;i class="fas fa-fw fa-trophy" aria-hidden="true"&gt;&lt;/i&gt; Best Demo Award&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Wang, Y., Bryan, N., Salamon, J., Cartwright, M., Bello, J.P. Who calls the shots? Rethinking few-shot learning for audio. In &lt;i&gt;Proceedings of the IEEE Workshop on Applications of Signal Processing to Audio and Acoustics (WASPAA)&lt;/i&gt;, 2021. &lt;b&gt;&lt;i class="fas fa-fw fa-trophy" aria-hidden="true"&gt;&lt;/i&gt; Special Best Paper Award&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1728,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1741,7 +1741,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1759,37 +1759,37 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1812,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1847,10 +1847,10 @@
         <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1876,7 +1876,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -1885,7 +1885,7 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1905,19 +1905,19 @@
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I5">
         <v>50</v>
       </c>
       <c r="Q5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -1946,13 +1946,13 @@
         <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="Q7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1998,16 +1998,16 @@
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I8">
         <v>33</v>
       </c>
       <c r="Q8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -2039,7 +2039,7 @@
         <v>52</v>
       </c>
       <c r="Q9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -2062,7 +2062,7 @@
         <v>57</v>
       </c>
       <c r="Q10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -2085,7 +2085,7 @@
         <v>62</v>
       </c>
       <c r="Q11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -2120,10 +2120,10 @@
         <v>70</v>
       </c>
       <c r="N12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -2143,28 +2143,28 @@
         <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" t="s">
         <v>152</v>
       </c>
-      <c r="G13" t="s">
-        <v>153</v>
-      </c>
       <c r="H13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I13">
         <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2184,16 +2184,16 @@
         <v>77</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -2213,31 +2213,31 @@
         <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="Q15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -2257,28 +2257,28 @@
         <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
         <v>163</v>
-      </c>
-      <c r="G16" t="s">
-        <v>164</v>
       </c>
       <c r="I16" s="4">
         <v>50</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="Q16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -2298,10 +2298,10 @@
         <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" t="s">
         <v>196</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -2321,10 +2321,10 @@
         <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -2344,10 +2344,10 @@
         <v>96</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -2367,28 +2367,28 @@
         <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I20">
         <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -2408,19 +2408,19 @@
         <v>104</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I21">
         <v>50</v>
       </c>
       <c r="Q21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -2434,31 +2434,31 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
         <v>106</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
         <v>172</v>
       </c>
-      <c r="G22" t="s">
-        <v>173</v>
-      </c>
       <c r="H22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I22">
         <v>50</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -2478,10 +2478,10 @@
         <v>110</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -2495,19 +2495,19 @@
         <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="E24" t="s">
         <v>113</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -2515,25 +2515,25 @@
         <v>41821</v>
       </c>
       <c r="B25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" t="s">
         <v>114</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>116</v>
       </c>
-      <c r="E25" t="s">
-        <v>117</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -2541,22 +2541,22 @@
         <v>41760</v>
       </c>
       <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
         <v>118</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>120</v>
       </c>
-      <c r="E26" t="s">
-        <v>121</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -2564,25 +2564,25 @@
         <v>41730</v>
       </c>
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
         <v>122</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>123</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>124</v>
       </c>
-      <c r="E27" t="s">
-        <v>125</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -2590,28 +2590,28 @@
         <v>41579</v>
       </c>
       <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
         <v>126</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>127</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>128</v>
       </c>
-      <c r="E28" t="s">
-        <v>129</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="Q28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -2619,22 +2619,22 @@
         <v>41214</v>
       </c>
       <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
         <v>130</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>132</v>
       </c>
-      <c r="E29" t="s">
-        <v>133</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -2642,22 +2642,22 @@
         <v>41091</v>
       </c>
       <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
         <v>134</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>135</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>136</v>
       </c>
-      <c r="E30" t="s">
-        <v>137</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -2665,22 +2665,22 @@
         <v>40848</v>
       </c>
       <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
         <v>138</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>139</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>140</v>
       </c>
-      <c r="E31" t="s">
-        <v>141</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -2688,22 +2688,22 @@
         <v>40634</v>
       </c>
       <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
         <v>142</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>143</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>144</v>
       </c>
-      <c r="E32" t="s">
-        <v>145</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -2711,37 +2711,37 @@
         <v>40360</v>
       </c>
       <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
         <v>146</v>
       </c>
-      <c r="C33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>147</v>
       </c>
-      <c r="E33" t="s">
-        <v>148</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I33">
         <v>50</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -2749,22 +2749,22 @@
         <v>39264</v>
       </c>
       <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
         <v>149</v>
       </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>150</v>
       </c>
-      <c r="E34" t="s">
-        <v>151</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -2772,43 +2772,43 @@
         <v>44137</v>
       </c>
       <c r="B35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" t="s">
         <v>231</v>
-      </c>
-      <c r="E35" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G35" t="s">
-        <v>233</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
       <c r="L35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M35" t="s">
+        <v>233</v>
+      </c>
+      <c r="N35" t="s">
         <v>234</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" t="s">
         <v>235</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>236</v>
       </c>
-      <c r="O35" t="s">
-        <v>237</v>
-      </c>
-      <c r="P35" t="s">
-        <v>238</v>
-      </c>
       <c r="Q35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -2816,34 +2816,34 @@
         <v>44115</v>
       </c>
       <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="G36" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E36" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="I36">
         <v>100</v>
       </c>
       <c r="J36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -2851,31 +2851,31 @@
         <v>44355</v>
       </c>
       <c r="B37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -2883,40 +2883,40 @@
         <v>44355</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I38">
         <v>100</v>
       </c>
       <c r="K38" t="s">
+        <v>255</v>
+      </c>
+      <c r="L38" t="s">
+        <v>263</v>
+      </c>
+      <c r="M38" t="s">
+        <v>256</v>
+      </c>
+      <c r="N38" t="s">
         <v>257</v>
       </c>
-      <c r="L38" t="s">
-        <v>266</v>
-      </c>
-      <c r="M38" t="s">
-        <v>258</v>
-      </c>
-      <c r="N38" t="s">
-        <v>259</v>
-      </c>
       <c r="Q38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -2924,43 +2924,43 @@
         <v>44486</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="L39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -2968,43 +2968,43 @@
         <v>44486</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E40" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
       <c r="L40" t="s">
+        <v>270</v>
+      </c>
+      <c r="M40" t="s">
         <v>273</v>
       </c>
-      <c r="M40" t="s">
-        <v>276</v>
-      </c>
       <c r="N40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P40" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcartwright/git/mcartwright.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15967B23-1F47-C543-95AD-68A5E19F64A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D91913-25CD-324A-9D25-595E11E29349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="6360" windowWidth="37420" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="288">
   <si>
     <t>title</t>
   </si>
@@ -860,6 +860,30 @@
   </si>
   <si>
     <t>Wang, Y., Bryan, N., Salamon, J., Cartwright, M., Bello, J.P. Who calls the shots? Rethinking few-shot learning for audio. In &lt;i&gt;Proceedings of the IEEE Workshop on Applications of Signal Processing to Audio and Acoustics (WASPAA)&lt;/i&gt;, 2021. &lt;b&gt;&lt;i class="fas fa-fw fa-trophy" aria-hidden="true"&gt;&lt;/i&gt; Special Best Paper Award&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>MONYC: Music of New York City Dataset</t>
+  </si>
+  <si>
+    <t>Fuentes, M., Zhao, D., Lostanlen, V., Cartwright, M., Mydlarz, C., Bello, J.P. MONYC: Music of New York City Dataset. In &lt;i&gt;Proceedings of the Workshop on Detection and Classification of Acoustic Scenes and Events (DCASE)&lt;/i&gt;, 2021.</t>
+  </si>
+  <si>
+    <t>fuentes2021monyc.pdf</t>
+  </si>
+  <si>
+    <t>Music plays an important role in human cultures and constitutes an integral part of urban soundscapes. In order to make sense of these soundscapes, machine listening models should be able to detect and classify street music. Yet, the lack of well-curated resources for training and evaluating these models currently hinders their development. We present MONYC, an open dataset of 1.5k music clips as recorded by the sensors of the Sounds of New York City (SONYC) project. MONYC contains audio data and spatiotemporal metadata, i.e., coarse sensor location and timestamps. In addition, we provide multilabel genre tags from four annotators as well as four binary tags: whether the music is live or recorded; loud or quiet; single-instrument or multi-instrument; and whether non-musical sources are also present.  The originality of MONYC is that it reveals how music manifests itself in a real-world setting among social interactions in an urban context. We perform a detailed qualitative analysis of MONYC, show its spatiotemporal trends, and discuss the scope of research questions that it can answer in the future.</t>
+  </si>
+  <si>
+    <t>fuentes2021monyc_presentation.pdf</t>
+  </si>
+  <si>
+    <t>fuentes2021monyc_poster.pdf</t>
+  </si>
+  <si>
+    <t>https://magdalenafuentes.github.io/monyc/</t>
+  </si>
+  <si>
+    <t>MONYC</t>
   </si>
 </sst>
 </file>
@@ -1725,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="95" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3005,6 +3029,41 @@
       </c>
       <c r="Q40" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>44493</v>
+      </c>
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>286</v>
+      </c>
+      <c r="P41" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
